--- a/runs/run325/NotionalETEOutput325.xlsx
+++ b/runs/run325/NotionalETEOutput325.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND0_State_Update</t>
+    <t>Missile_BRAVER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0_453.MISSILE_HIGHWIND0_453</t>
+    <t>MISSILE_BRAVER0_315.MISSILE_BRAVER0_315</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0</t>
+    <t>MISSILE_BRAVER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1563.326525083326</v>
+        <v>-1536.07366122799</v>
       </c>
       <c r="J2">
-        <v>1967.417616942324</v>
+        <v>1941.778261679817</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1529.859185748911</v>
+        <v>-1444.286077503082</v>
       </c>
       <c r="J3">
-        <v>1871.361432233745</v>
+        <v>1878.456115633709</v>
       </c>
       <c r="K3">
-        <v>308.9520531676523</v>
+        <v>289.9815163895802</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1431.614729276876</v>
+        <v>-1493.489868856884</v>
       </c>
       <c r="J4">
-        <v>1904.393919810668</v>
+        <v>1824.071597213851</v>
       </c>
       <c r="K4">
-        <v>606.47628457696</v>
+        <v>580.4484044657155</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1427.671077674483</v>
+        <v>-1359.404818883083</v>
       </c>
       <c r="J5">
-        <v>1922.409878857673</v>
+        <v>1891.129324641713</v>
       </c>
       <c r="K5">
-        <v>824.1264873233868</v>
+        <v>882.8413406752089</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1345.902639081408</v>
+        <v>-1401.005699873841</v>
       </c>
       <c r="J6">
-        <v>1737.874555795094</v>
+        <v>1768.376584432947</v>
       </c>
       <c r="K6">
-        <v>1093.4768373008</v>
+        <v>1113.083131985434</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1405.271391082163</v>
+        <v>-1407.194950885327</v>
       </c>
       <c r="J7">
-        <v>1726.559712385837</v>
+        <v>1723.617647096304</v>
       </c>
       <c r="K7">
-        <v>1401.332212248924</v>
+        <v>1365.999923153781</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1259.017310839029</v>
+        <v>-1313.535760442105</v>
       </c>
       <c r="J8">
-        <v>1738.243766948372</v>
+        <v>1771.778925682514</v>
       </c>
       <c r="K8">
-        <v>1623.727591824811</v>
+        <v>1553.980258704559</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.4725655121395</v>
+        <v>-99.55965913940321</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1247.340848183264</v>
+        <v>-1254.051529244551</v>
       </c>
       <c r="J9">
-        <v>1673.525120146955</v>
+        <v>1638.834512644704</v>
       </c>
       <c r="K9">
-        <v>1889.916295708189</v>
+        <v>1761.601049895115</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.93513443525</v>
+        <v>216.6762007160004</v>
       </c>
       <c r="G10">
-        <v>-86.84948203416209</v>
+        <v>-80.80674450471192</v>
       </c>
       <c r="H10">
-        <v>873.1059467603357</v>
+        <v>855.3656618081859</v>
       </c>
       <c r="I10">
-        <v>-1189.370603542507</v>
+        <v>-1242.536685175598</v>
       </c>
       <c r="J10">
-        <v>1612.914333687329</v>
+        <v>1661.701565008698</v>
       </c>
       <c r="K10">
-        <v>1942.489405801552</v>
+        <v>2103.781569343698</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.0832036725353</v>
+        <v>165.0057624877026</v>
       </c>
       <c r="G11">
-        <v>-65.05123891480419</v>
+        <v>-70.08251817673079</v>
       </c>
       <c r="H11">
-        <v>1005.608319432688</v>
+        <v>1036.533919922462</v>
       </c>
       <c r="I11">
-        <v>-1245.804314796862</v>
+        <v>-1251.154967949</v>
       </c>
       <c r="J11">
-        <v>1569.528417363659</v>
+        <v>1578.011102170721</v>
       </c>
       <c r="K11">
-        <v>2151.156157504619</v>
+        <v>2099.026805104556</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.5404068225907</v>
+        <v>139.4114740345888</v>
       </c>
       <c r="G12">
-        <v>-50.24860215691881</v>
+        <v>-48.72471647245224</v>
       </c>
       <c r="H12">
-        <v>1125.706023223523</v>
+        <v>1203.486094218589</v>
       </c>
       <c r="I12">
-        <v>-1147.990853677907</v>
+        <v>-1199.789454721447</v>
       </c>
       <c r="J12">
-        <v>1558.571094316323</v>
+        <v>1486.444483534976</v>
       </c>
       <c r="K12">
-        <v>2373.547795152827</v>
+        <v>2387.603764166152</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.8348584512231</v>
+        <v>120.7365517120109</v>
       </c>
       <c r="G13">
-        <v>-35.5750373601421</v>
+        <v>-32.72823032112994</v>
       </c>
       <c r="H13">
-        <v>1307.489322833026</v>
+        <v>1307.791169142605</v>
       </c>
       <c r="I13">
-        <v>-1087.133479759384</v>
+        <v>-1112.504063651182</v>
       </c>
       <c r="J13">
-        <v>1537.96261665988</v>
+        <v>1465.899636401894</v>
       </c>
       <c r="K13">
-        <v>2428.276533392553</v>
+        <v>2465.30145213633</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.8158563972355</v>
+        <v>104.5062608388164</v>
       </c>
       <c r="G14">
-        <v>-18.13857304672137</v>
+        <v>-17.11988418437398</v>
       </c>
       <c r="H14">
-        <v>1337.194923313069</v>
+        <v>1307.038838186672</v>
       </c>
       <c r="I14">
-        <v>-1141.572665613037</v>
+        <v>-1092.297903364213</v>
       </c>
       <c r="J14">
-        <v>1486.835312591392</v>
+        <v>1446.967787999303</v>
       </c>
       <c r="K14">
-        <v>2522.147811142317</v>
+        <v>2773.011761079028</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.8932780373187</v>
+        <v>102.2295761841098</v>
       </c>
       <c r="G15">
-        <v>-0.8984741074372447</v>
+        <v>-0.9584177551670786</v>
       </c>
       <c r="H15">
-        <v>1439.728108098671</v>
+        <v>1384.617898638942</v>
       </c>
       <c r="I15">
-        <v>-1091.108862240795</v>
+        <v>-1051.697093501047</v>
       </c>
       <c r="J15">
-        <v>1356.355993258142</v>
+        <v>1422.043419456882</v>
       </c>
       <c r="K15">
-        <v>2716.365854574949</v>
+        <v>2826.98713186649</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.2558127882848</v>
+        <v>92.79345684277283</v>
       </c>
       <c r="G16">
-        <v>14.98130954253531</v>
+        <v>15.84189402363241</v>
       </c>
       <c r="H16">
-        <v>1486.512999732265</v>
+        <v>1446.924503334831</v>
       </c>
       <c r="I16">
-        <v>-984.9183979425749</v>
+        <v>-1031.529492744802</v>
       </c>
       <c r="J16">
-        <v>1374.26136962256</v>
+        <v>1301.720490226544</v>
       </c>
       <c r="K16">
-        <v>2794.72205731082</v>
+        <v>2961.783386535365</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.82502631617106</v>
+        <v>88.66250131171715</v>
       </c>
       <c r="G17">
-        <v>30.74572315762396</v>
+        <v>32.48029038414953</v>
       </c>
       <c r="H17">
-        <v>1509.462247659269</v>
+        <v>1438.329236695907</v>
       </c>
       <c r="I17">
-        <v>-983.3624352865428</v>
+        <v>-939.2862634201744</v>
       </c>
       <c r="J17">
-        <v>1309.689124743353</v>
+        <v>1220.464188873094</v>
       </c>
       <c r="K17">
-        <v>2821.093011390335</v>
+        <v>2830.125281194606</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.24306595510077</v>
+        <v>83.36620322178865</v>
       </c>
       <c r="G18">
-        <v>48.52180436820529</v>
+        <v>48.30431378035087</v>
       </c>
       <c r="H18">
-        <v>1467.96929382744</v>
+        <v>1492.008084930287</v>
       </c>
       <c r="I18">
-        <v>-886.8853191187594</v>
+        <v>-950.316900274849</v>
       </c>
       <c r="J18">
-        <v>1245.137797185574</v>
+        <v>1183.747000829233</v>
       </c>
       <c r="K18">
-        <v>2901.097938555527</v>
+        <v>2934.486595063184</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>81.36763000127399</v>
+        <v>75.17070162043566</v>
       </c>
       <c r="G19">
-        <v>67.14109147540945</v>
+        <v>62.83198517097319</v>
       </c>
       <c r="H19">
-        <v>1583.330226056728</v>
+        <v>1553.776896311464</v>
       </c>
       <c r="I19">
-        <v>-927.4205949079787</v>
+        <v>-889.863848448381</v>
       </c>
       <c r="J19">
-        <v>1202.024826508695</v>
+        <v>1142.357063554678</v>
       </c>
       <c r="K19">
-        <v>3162.859523693145</v>
+        <v>3143.890323743894</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.22950631547698</v>
+        <v>76.0920300162604</v>
       </c>
       <c r="G20">
-        <v>78.71068366373447</v>
+        <v>83.32009548659079</v>
       </c>
       <c r="H20">
-        <v>1592.211947837018</v>
+        <v>1601.983284716654</v>
       </c>
       <c r="I20">
-        <v>-872.7749887705024</v>
+        <v>-841.3748920812897</v>
       </c>
       <c r="J20">
-        <v>1114.888736496432</v>
+        <v>1159.984353673847</v>
       </c>
       <c r="K20">
-        <v>3052.870386808576</v>
+        <v>3047.437181910805</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.13079432432322</v>
+        <v>72.32338524377828</v>
       </c>
       <c r="G21">
-        <v>95.09008659496634</v>
+        <v>94.79649119603687</v>
       </c>
       <c r="H21">
-        <v>1544.830818903058</v>
+        <v>1532.811576719094</v>
       </c>
       <c r="I21">
-        <v>-817.6096710936456</v>
+        <v>-787.2436327737333</v>
       </c>
       <c r="J21">
-        <v>1034.110123054648</v>
+        <v>1053.733494006748</v>
       </c>
       <c r="K21">
-        <v>3105.579156382788</v>
+        <v>3245.207286498253</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.81465032572402</v>
+        <v>66.61449393747269</v>
       </c>
       <c r="G22">
-        <v>111.8719105360578</v>
+        <v>111.1079881459313</v>
       </c>
       <c r="H22">
-        <v>1539.023656466754</v>
+        <v>1626.041787046391</v>
       </c>
       <c r="I22">
-        <v>-734.4795132193931</v>
+        <v>-742.7554738188951</v>
       </c>
       <c r="J22">
-        <v>1012.040719307455</v>
+        <v>1058.597607547715</v>
       </c>
       <c r="K22">
-        <v>3268.239603009109</v>
+        <v>3073.346454237122</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.69343909420722</v>
+        <v>65.73531202549893</v>
       </c>
       <c r="G23">
-        <v>126.1947225506184</v>
+        <v>132.3570271813541</v>
       </c>
       <c r="H23">
-        <v>1671.63116598789</v>
+        <v>1590.082427549276</v>
       </c>
       <c r="I23">
-        <v>-729.874043367622</v>
+        <v>-720.6578806116426</v>
       </c>
       <c r="J23">
-        <v>1010.834226036448</v>
+        <v>1010.931221278842</v>
       </c>
       <c r="K23">
-        <v>3163.693547633278</v>
+        <v>3099.61918720413</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.55979272586256</v>
+        <v>62.47081122009253</v>
       </c>
       <c r="G24">
-        <v>153.0701358287317</v>
+        <v>144.1097647342268</v>
       </c>
       <c r="H24">
-        <v>1689.620708148676</v>
+        <v>1592.436109863157</v>
       </c>
       <c r="I24">
-        <v>-637.6182840464968</v>
+        <v>-662.9424944925304</v>
       </c>
       <c r="J24">
-        <v>969.0224784567555</v>
+        <v>972.2708973810779</v>
       </c>
       <c r="K24">
-        <v>3220.837796083766</v>
+        <v>3025.833056785796</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.58364814595406</v>
+        <v>58.81265086010349</v>
       </c>
       <c r="G25">
-        <v>171.2851365861049</v>
+        <v>164.3438817591377</v>
       </c>
       <c r="H25">
-        <v>1651.564809451997</v>
+        <v>1672.710136797544</v>
       </c>
       <c r="I25">
-        <v>-570.8870310162605</v>
+        <v>-595.1681179468244</v>
       </c>
       <c r="J25">
-        <v>919.1026347014199</v>
+        <v>885.3617852066069</v>
       </c>
       <c r="K25">
-        <v>3002.521338756254</v>
+        <v>3264.187510537792</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.838266936732</v>
+        <v>58.00640813044127</v>
       </c>
       <c r="G26">
-        <v>183.8347566803026</v>
+        <v>174.6161203160113</v>
       </c>
       <c r="H26">
-        <v>1752.826450087619</v>
+        <v>1627.15141845069</v>
       </c>
       <c r="I26">
-        <v>-529.1425673286989</v>
+        <v>-553.6777701414628</v>
       </c>
       <c r="J26">
-        <v>799.7926484301853</v>
+        <v>797.4042756578391</v>
       </c>
       <c r="K26">
-        <v>3055.96496129972</v>
+        <v>3183.730525434623</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.77135907173191</v>
+        <v>59.37306485308997</v>
       </c>
       <c r="G27">
-        <v>196.418408224849</v>
+        <v>203.2141320809253</v>
       </c>
       <c r="H27">
-        <v>1731.481520947564</v>
+        <v>1727.086729261584</v>
       </c>
       <c r="I27">
-        <v>-490.5261210259691</v>
+        <v>-515.8385735497991</v>
       </c>
       <c r="J27">
-        <v>765.0275558821294</v>
+        <v>779.4805462754026</v>
       </c>
       <c r="K27">
-        <v>3113.247452334823</v>
+        <v>3170.067187313358</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.06217287497704</v>
+        <v>57.79571552894371</v>
       </c>
       <c r="G28">
-        <v>222.7608464922729</v>
+        <v>204.2279718846005</v>
       </c>
       <c r="H28">
-        <v>1679.478893652215</v>
+        <v>1699.679385218743</v>
       </c>
       <c r="I28">
-        <v>-433.8771165215106</v>
+        <v>-441.737650504514</v>
       </c>
       <c r="J28">
-        <v>705.4585271563742</v>
+        <v>734.089074257443</v>
       </c>
       <c r="K28">
-        <v>3124.033660441313</v>
+        <v>3003.559977050588</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.32660270726522</v>
+        <v>52.37533069446216</v>
       </c>
       <c r="G29">
-        <v>236.7264710042526</v>
+        <v>233.5217614071101</v>
       </c>
       <c r="H29">
-        <v>1797.55296301548</v>
+        <v>1709.000592980379</v>
       </c>
       <c r="I29">
-        <v>-384.4119664050071</v>
+        <v>-382.0307982263969</v>
       </c>
       <c r="J29">
-        <v>667.6419747340178</v>
+        <v>709.3292903004337</v>
       </c>
       <c r="K29">
-        <v>2909.003272384595</v>
+        <v>2910.902875704803</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.01676394577318</v>
+        <v>54.01734979505478</v>
       </c>
       <c r="G30">
-        <v>239.5969896612182</v>
+        <v>251.041654760701</v>
       </c>
       <c r="H30">
-        <v>1748.931771285133</v>
+        <v>1769.349208409453</v>
       </c>
       <c r="I30">
-        <v>-319.1974140977202</v>
+        <v>-340.0724233104225</v>
       </c>
       <c r="J30">
-        <v>667.4154392503082</v>
+        <v>642.456191113224</v>
       </c>
       <c r="K30">
-        <v>2827.61385608154</v>
+        <v>2821.24093966909</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.6128051999504</v>
+        <v>53.8328075186875</v>
       </c>
       <c r="G31">
-        <v>264.5877365225962</v>
+        <v>272.1726383089382</v>
       </c>
       <c r="H31">
-        <v>1743.652080973318</v>
+        <v>1747.68728779832</v>
       </c>
       <c r="I31">
-        <v>-280.1220833730734</v>
+        <v>-279.0584468490916</v>
       </c>
       <c r="J31">
-        <v>609.6661352540029</v>
+        <v>579.028925964322</v>
       </c>
       <c r="K31">
-        <v>2553.132245498422</v>
+        <v>2779.082602721501</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.83929309724756</v>
+        <v>49.4608418463774</v>
       </c>
       <c r="G32">
-        <v>274.2026478634841</v>
+        <v>272.4376894468198</v>
       </c>
       <c r="H32">
-        <v>1865.283266541947</v>
+        <v>1786.050270116347</v>
       </c>
       <c r="I32">
-        <v>-211.8565061484204</v>
+        <v>-198.4205848154164</v>
       </c>
       <c r="J32">
-        <v>526.9847771165535</v>
+        <v>546.8477148607301</v>
       </c>
       <c r="K32">
-        <v>2631.410144610837</v>
+        <v>2542.075366623624</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.22784155648655</v>
+        <v>48.85459047663277</v>
       </c>
       <c r="G33">
-        <v>294.3120147680768</v>
+        <v>287.181184509516</v>
       </c>
       <c r="H33">
-        <v>1837.738394121223</v>
+        <v>1768.862134789337</v>
       </c>
       <c r="I33">
-        <v>-142.5056299604299</v>
+        <v>-142.235853878653</v>
       </c>
       <c r="J33">
-        <v>485.9862328038453</v>
+        <v>474.6012263458135</v>
       </c>
       <c r="K33">
-        <v>2261.539851134271</v>
+        <v>2321.80674345033</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.44944905276442</v>
+        <v>48.52256295802982</v>
       </c>
       <c r="G34">
-        <v>320.0869427645513</v>
+        <v>314.6305030335552</v>
       </c>
       <c r="H34">
-        <v>1865.099004687029</v>
+        <v>1881.808860108601</v>
       </c>
       <c r="I34">
-        <v>-79.62252440769623</v>
+        <v>-87.36778425141597</v>
       </c>
       <c r="J34">
-        <v>429.6741824381642</v>
+        <v>429.5495841384809</v>
       </c>
       <c r="K34">
-        <v>2180.633791072626</v>
+        <v>2317.045340378661</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.58997289197625</v>
+        <v>46.02533029690576</v>
       </c>
       <c r="G35">
-        <v>327.7423162079622</v>
+        <v>329.8583558479093</v>
       </c>
       <c r="H35">
-        <v>1872.586369439202</v>
+        <v>1909.079664846294</v>
       </c>
       <c r="I35">
-        <v>-18.80398374893615</v>
+        <v>-18.76531255055241</v>
       </c>
       <c r="J35">
-        <v>384.4528529266221</v>
+        <v>411.3444896323242</v>
       </c>
       <c r="K35">
-        <v>2104.936261470615</v>
+        <v>1974.69136961074</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.96179418842252</v>
+        <v>48.94194365540989</v>
       </c>
       <c r="G36">
-        <v>353.2843975783771</v>
+        <v>344.942119511852</v>
       </c>
       <c r="H36">
-        <v>1811.582029893628</v>
+        <v>1753.162998082341</v>
       </c>
       <c r="I36">
-        <v>49.27903722422202</v>
+        <v>48.49626902107315</v>
       </c>
       <c r="J36">
-        <v>353.0292123783369</v>
+        <v>330.2790425928653</v>
       </c>
       <c r="K36">
-        <v>1847.103919499291</v>
+        <v>1881.836674130755</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.38510398081665</v>
+        <v>47.53457500354988</v>
       </c>
       <c r="G37">
-        <v>377.09384444824</v>
+        <v>353.3071088966063</v>
       </c>
       <c r="H37">
-        <v>1774.065046969569</v>
+        <v>1796.288295264251</v>
       </c>
       <c r="I37">
-        <v>109.6531354860112</v>
+        <v>115.3596874823315</v>
       </c>
       <c r="J37">
-        <v>287.9821339321945</v>
+        <v>308.0624171998194</v>
       </c>
       <c r="K37">
-        <v>1659.094422588217</v>
+        <v>1566.554259447468</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.05249497351439</v>
+        <v>44.4956619075652</v>
       </c>
       <c r="G38">
-        <v>369.7106780191377</v>
+        <v>363.3882044245029</v>
       </c>
       <c r="H38">
-        <v>1774.222850679632</v>
+        <v>1840.493192813507</v>
       </c>
       <c r="I38">
-        <v>189.7359212490958</v>
+        <v>177.2624702606172</v>
       </c>
       <c r="J38">
-        <v>258.3598177894386</v>
+        <v>255.8770182852934</v>
       </c>
       <c r="K38">
-        <v>1460.591795147217</v>
+        <v>1358.734736546123</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.77116749891963</v>
+        <v>44.16439422136037</v>
       </c>
       <c r="G39">
-        <v>408.0138921986891</v>
+        <v>378.9462018260507</v>
       </c>
       <c r="H39">
-        <v>1933.808570597971</v>
+        <v>1786.906106057036</v>
       </c>
       <c r="I39">
-        <v>245.0458801228395</v>
+        <v>258.3353093251975</v>
       </c>
       <c r="J39">
-        <v>198.9196271817082</v>
+        <v>203.5793382510913</v>
       </c>
       <c r="K39">
-        <v>1133.997175768557</v>
+        <v>1102.88179806216</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.05565200605092</v>
+        <v>44.91013464796006</v>
       </c>
       <c r="G40">
-        <v>394.6313561617783</v>
+        <v>402.4657365950914</v>
       </c>
       <c r="H40">
-        <v>1842.851148236943</v>
+        <v>1786.113589848622</v>
       </c>
       <c r="I40">
-        <v>342.8954734596919</v>
+        <v>312.1629291772784</v>
       </c>
       <c r="J40">
-        <v>145.1415070385658</v>
+        <v>155.4813903060328</v>
       </c>
       <c r="K40">
-        <v>928.4280005904498</v>
+        <v>929.0799455505826</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.2080749744304</v>
+        <v>43.651523890791</v>
       </c>
       <c r="G41">
-        <v>442.9445817632428</v>
+        <v>414.8108761152681</v>
       </c>
       <c r="H41">
-        <v>1935.831097271206</v>
+        <v>1932.820135620376</v>
       </c>
       <c r="I41">
-        <v>384.7238927374281</v>
+        <v>384.1305103829077</v>
       </c>
       <c r="J41">
-        <v>99.08846834990207</v>
+        <v>107.1254239411184</v>
       </c>
       <c r="K41">
-        <v>625.1731202256934</v>
+        <v>614.3825431859756</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.46975064713228</v>
+        <v>44.04136592943279</v>
       </c>
       <c r="G42">
-        <v>438.8597592672251</v>
+        <v>427.4221406654755</v>
       </c>
       <c r="H42">
-        <v>1897.784052320502</v>
+        <v>1979.59467924605</v>
       </c>
       <c r="I42">
-        <v>474.7691847287177</v>
+        <v>475.4053688741773</v>
       </c>
       <c r="J42">
-        <v>55.22841073215853</v>
+        <v>53.33893871657322</v>
       </c>
       <c r="K42">
-        <v>330.034874150802</v>
+        <v>334.8450953378725</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.20921376235965</v>
+        <v>41.13904796765279</v>
       </c>
       <c r="G43">
-        <v>464.8924233193858</v>
+        <v>461.4931917072333</v>
       </c>
       <c r="H43">
-        <v>1809.732827648802</v>
+        <v>1848.099751410736</v>
       </c>
       <c r="I43">
-        <v>544.2362476136517</v>
+        <v>531.1182237616899</v>
       </c>
       <c r="J43">
-        <v>5.512113469234962</v>
+        <v>5.25916623485903</v>
       </c>
       <c r="K43">
-        <v>32.18483353538765</v>
+        <v>32.09856571314339</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.26737518616073</v>
+        <v>41.70449618229009</v>
       </c>
       <c r="G44">
-        <v>483.9171941186252</v>
+        <v>456.9007394588751</v>
       </c>
       <c r="H44">
-        <v>1860.854737034642</v>
+        <v>2002.162364968826</v>
       </c>
       <c r="I44">
-        <v>609.0395378234805</v>
+        <v>657.267853511334</v>
       </c>
       <c r="J44">
-        <v>-42.33529666168025</v>
+        <v>-43.58620052198328</v>
       </c>
       <c r="K44">
-        <v>-297.4882868623424</v>
+        <v>-287.4809248749517</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.12322150267666</v>
+        <v>42.7628097549753</v>
       </c>
       <c r="G45">
-        <v>475.7433203411055</v>
+        <v>505.445279914382</v>
       </c>
       <c r="H45">
-        <v>1945.477689436991</v>
+        <v>1842.750093382646</v>
       </c>
       <c r="I45">
-        <v>700.0762945759151</v>
+        <v>698.3997145273488</v>
       </c>
       <c r="J45">
-        <v>-92.73463013986449</v>
+        <v>-96.00717183791339</v>
       </c>
       <c r="K45">
-        <v>-602.2549991329222</v>
+        <v>-621.659892639871</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.68570574275761</v>
+        <v>41.55478593749388</v>
       </c>
       <c r="G46">
-        <v>527.6431594294705</v>
+        <v>535.9701120010778</v>
       </c>
       <c r="H46">
-        <v>2008.385441187997</v>
+        <v>1881.399872997759</v>
       </c>
       <c r="I46">
-        <v>810.4372299970802</v>
+        <v>766.6980463850572</v>
       </c>
       <c r="J46">
-        <v>-146.1256004784925</v>
+        <v>-136.3633235710585</v>
       </c>
       <c r="K46">
-        <v>-958.4912909900985</v>
+        <v>-950.5618847381916</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.67425984135232</v>
+        <v>39.38478249986193</v>
       </c>
       <c r="G47">
-        <v>550.2241982803232</v>
+        <v>553.582559932772</v>
       </c>
       <c r="H47">
-        <v>1858.153408780624</v>
+        <v>1934.33499554476</v>
       </c>
       <c r="I47">
-        <v>882.6697490301337</v>
+        <v>934.870387310348</v>
       </c>
       <c r="J47">
-        <v>-198.4780459785662</v>
+        <v>-185.2829744620083</v>
       </c>
       <c r="K47">
-        <v>-1382.627364200286</v>
+        <v>-1387.684949884715</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.91295408976541</v>
+        <v>39.24402776234408</v>
       </c>
       <c r="G48">
-        <v>563.3628278212026</v>
+        <v>539.3269370177035</v>
       </c>
       <c r="H48">
-        <v>1935.521907050165</v>
+        <v>2036.841458957567</v>
       </c>
       <c r="I48">
-        <v>1021.477471271693</v>
+        <v>1003.410114270281</v>
       </c>
       <c r="J48">
-        <v>-240.6240774219662</v>
+        <v>-231.590213546329</v>
       </c>
       <c r="K48">
-        <v>-1740.685929361423</v>
+        <v>-1665.591338058967</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.99365702192808</v>
+        <v>38.68598853173871</v>
       </c>
       <c r="G49">
-        <v>582.261585597699</v>
+        <v>583.1704899685417</v>
       </c>
       <c r="H49">
-        <v>1945.814145954005</v>
+        <v>2012.315537681223</v>
       </c>
       <c r="I49">
-        <v>1041.839391314478</v>
+        <v>1048.621709153135</v>
       </c>
       <c r="J49">
-        <v>-290.0892447695392</v>
+        <v>-276.4387220660286</v>
       </c>
       <c r="K49">
-        <v>-2106.19772331506</v>
+        <v>-2187.720788154927</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.75848794892453</v>
+        <v>39.14468473538226</v>
       </c>
       <c r="G50">
-        <v>594.2613132250314</v>
+        <v>566.4179754704605</v>
       </c>
       <c r="H50">
-        <v>2019.049065838212</v>
+        <v>2029.620500482455</v>
       </c>
       <c r="I50">
-        <v>1105.156722207226</v>
+        <v>1175.617604346734</v>
       </c>
       <c r="J50">
-        <v>-346.563919426026</v>
+        <v>-342.3364686249216</v>
       </c>
       <c r="K50">
-        <v>-2421.055813242861</v>
+        <v>-2432.054709371839</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.83104406632506</v>
+        <v>37.66154022280579</v>
       </c>
       <c r="G51">
-        <v>581.9307189269592</v>
+        <v>621.4142461425357</v>
       </c>
       <c r="H51">
-        <v>1945.74201220064</v>
+        <v>1941.67659074412</v>
       </c>
       <c r="I51">
-        <v>1222.289159706164</v>
+        <v>1223.777591085147</v>
       </c>
       <c r="J51">
-        <v>-383.7143248968499</v>
+        <v>-386.8145359692307</v>
       </c>
       <c r="K51">
-        <v>-3046.105102017925</v>
+        <v>-3022.07436746451</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.95446299036025</v>
+        <v>38.18631724870068</v>
       </c>
       <c r="G52">
-        <v>589.3480073367792</v>
+        <v>605.8626295863717</v>
       </c>
       <c r="H52">
-        <v>1992.911249227895</v>
+        <v>1931.126892445932</v>
       </c>
       <c r="I52">
-        <v>1306.874255792305</v>
+        <v>1375.405567526997</v>
       </c>
       <c r="J52">
-        <v>-418.4397932004503</v>
+        <v>-426.6027991033369</v>
       </c>
       <c r="K52">
-        <v>-3436.215133652055</v>
+        <v>-3464.290294855284</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.29255810063743</v>
+        <v>37.005150446576</v>
       </c>
       <c r="G53">
-        <v>640.8058297122683</v>
+        <v>603.4402297620314</v>
       </c>
       <c r="H53">
-        <v>2068.22056616806</v>
+        <v>1917.052626456078</v>
       </c>
       <c r="I53">
-        <v>1413.965424415836</v>
+        <v>1502.663723728082</v>
       </c>
       <c r="J53">
-        <v>-483.384517507806</v>
+        <v>-499.859213968065</v>
       </c>
       <c r="K53">
-        <v>-3788.121703580879</v>
+        <v>-3887.80038293453</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.75215103035127</v>
+        <v>37.19384062380333</v>
       </c>
       <c r="G54">
-        <v>658.3609722960643</v>
+        <v>662.2947374906473</v>
       </c>
       <c r="H54">
-        <v>2000.374880465216</v>
+        <v>1957.205677751666</v>
       </c>
       <c r="I54">
-        <v>1614.304933896283</v>
+        <v>1515.405879482911</v>
       </c>
       <c r="J54">
-        <v>-548.5736254278044</v>
+        <v>-551.7068241772732</v>
       </c>
       <c r="K54">
-        <v>-4492.173507248864</v>
+        <v>-4407.930589224805</v>
       </c>
     </row>
   </sheetData>
